--- a/jump_datagroup.xlsx
+++ b/jump_datagroup.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HUDK 4050\Git\hackathon5_group\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F76DAB56-87CC-4215-9E47-CDA936106E1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F344F7-973F-44ED-8731-373F60AF9BC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{8DC60A95-B6B7-4DB8-9A5C-A4195A439F4F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -66,53 +66,68 @@
     <t>Q5</t>
   </si>
   <si>
-    <t>amanda</t>
-  </si>
-  <si>
-    <t>dan</t>
-  </si>
-  <si>
-    <t>daisy</t>
-  </si>
-  <si>
-    <t>Yen-Ling</t>
-  </si>
-  <si>
-    <t>Aniket</t>
-  </si>
-  <si>
     <t>Junhao Zhang</t>
   </si>
   <si>
-    <t>Xinyuan</t>
-  </si>
-  <si>
     <t>Qianhui Yuan</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Amanda Oliveira</t>
+  </si>
+  <si>
+    <t>ag4399@tc.columbia.edu</t>
+  </si>
+  <si>
+    <t>Dan Lei</t>
+  </si>
+  <si>
+    <t>dl3418@tc.columbia.edu</t>
+  </si>
+  <si>
+    <t>Daisy Zhou</t>
+  </si>
+  <si>
+    <t>yz3845@tc.columbia.edu</t>
+  </si>
+  <si>
+    <t>Yen-Ling Cheng</t>
+  </si>
+  <si>
+    <t>yc3655@tc.columbia.edu</t>
+  </si>
+  <si>
+    <t>Aniket Shah</t>
+  </si>
+  <si>
+    <t>as6145@tc.columbia.edu</t>
+  </si>
+  <si>
+    <t>jz3248@tc.columbia.edu</t>
+  </si>
+  <si>
+    <t>Xinyuan Ren</t>
+  </si>
+  <si>
+    <t>xr2146@tc.columbia.edu</t>
+  </si>
+  <si>
+    <t>qy2244@tc.columbia.edu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,7 +138,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -131,36 +146,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,283 +466,328 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D5A043-686B-4092-BB67-6FEBEFA039C6}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>65</v>
+      </c>
+      <c r="D2">
+        <v>2.867</v>
+      </c>
+      <c r="E2">
+        <v>3.2469999999999999</v>
+      </c>
+      <c r="F2">
+        <v>2.258</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>58</v>
+      </c>
+      <c r="D3">
+        <v>3.7850000000000001</v>
+      </c>
+      <c r="E3">
+        <v>3.56</v>
+      </c>
+      <c r="F3">
+        <v>3.7909999999999999</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>43</v>
+      </c>
+      <c r="D4">
+        <v>4.1980000000000004</v>
+      </c>
+      <c r="E4">
+        <v>3.3660000000000001</v>
+      </c>
+      <c r="F4">
+        <v>3.7370000000000001</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>70</v>
+      </c>
+      <c r="D5">
+        <v>4.6369999999999996</v>
+      </c>
+      <c r="E5">
+        <v>3.5009999999999999</v>
+      </c>
+      <c r="F5">
+        <v>3.4129999999999998</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>60</v>
+      </c>
+      <c r="D6">
+        <v>3.2010000000000001</v>
+      </c>
+      <c r="E6">
+        <v>3.0129999999999999</v>
+      </c>
+      <c r="F6">
+        <v>3.302</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2">
-        <v>65</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2.8674499999999998</v>
-      </c>
-      <c r="D2" s="2">
-        <v>3.2466699999999999</v>
-      </c>
-      <c r="E2" s="2">
-        <v>2.2583799999999998</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>56</v>
+      </c>
+      <c r="D7">
+        <v>2.835</v>
+      </c>
+      <c r="E7">
+        <v>3.3769999999999998</v>
+      </c>
+      <c r="F7">
+        <v>2.5790000000000002</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>53</v>
+      </c>
+      <c r="D8">
+        <v>3.653</v>
+      </c>
+      <c r="E8">
+        <v>3.4590000000000001</v>
+      </c>
+      <c r="F8">
+        <v>2.528</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
         <v>5</v>
       </c>
-      <c r="H2" s="2">
-        <v>2</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2">
+      <c r="K8">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2">
-        <v>58</v>
-      </c>
-      <c r="C3" s="2">
-        <v>3.7850100000000002</v>
-      </c>
-      <c r="D3" s="2">
-        <v>3.5604399999999998</v>
-      </c>
-      <c r="E3" s="2">
-        <v>3.7908599999999999</v>
-      </c>
-      <c r="F3" s="2">
-        <v>3</v>
-      </c>
-      <c r="G3" s="2">
-        <v>2</v>
-      </c>
-      <c r="H3" s="2">
-        <v>2</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2">
-        <v>43</v>
-      </c>
-      <c r="C4" s="3">
-        <v>4.197931767</v>
-      </c>
-      <c r="D4" s="2">
-        <v>3.3660423759999998</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3.7368638519999999</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
-        <v>3</v>
-      </c>
-      <c r="H4" s="2">
-        <v>3</v>
-      </c>
-      <c r="I4" s="2">
-        <v>2</v>
-      </c>
-      <c r="J4" s="2">
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>76</v>
+      </c>
+      <c r="D9">
+        <v>2.617</v>
+      </c>
+      <c r="E9">
+        <v>3.823</v>
+      </c>
+      <c r="F9">
+        <v>4.2720000000000002</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2">
-        <v>70</v>
-      </c>
-      <c r="C5" s="2">
-        <v>4.6372132300000004</v>
-      </c>
-      <c r="D5" s="2">
-        <v>3.5005280970000001</v>
-      </c>
-      <c r="E5" s="2">
-        <v>3.4127190110000001</v>
-      </c>
-      <c r="F5" s="2">
-        <v>3</v>
-      </c>
-      <c r="G5" s="2">
-        <v>4</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1</v>
-      </c>
-      <c r="J5" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2">
-        <v>60</v>
-      </c>
-      <c r="C6" s="2">
-        <v>3.2013400000000001</v>
-      </c>
-      <c r="D6" s="2">
-        <v>3.0128900000000001</v>
-      </c>
-      <c r="E6" s="2">
-        <v>3.3018999999999998</v>
-      </c>
-      <c r="F6" s="2">
-        <v>3</v>
-      </c>
-      <c r="G6" s="2">
-        <v>2</v>
-      </c>
-      <c r="H6" s="2">
-        <v>2</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2">
-        <v>56</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2.8353100000000002</v>
-      </c>
-      <c r="D7" s="2">
-        <v>3.3765399999999999</v>
-      </c>
-      <c r="E7" s="2">
-        <v>2.57864</v>
-      </c>
-      <c r="F7" s="2">
-        <v>3</v>
-      </c>
-      <c r="G7" s="2">
-        <v>4</v>
-      </c>
-      <c r="H7" s="2">
-        <v>2</v>
-      </c>
-      <c r="I7" s="2">
-        <v>1</v>
-      </c>
-      <c r="J7" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2">
-        <v>53</v>
-      </c>
-      <c r="C8" s="2">
-        <v>3.6526963710000002</v>
-      </c>
-      <c r="D8" s="2">
-        <v>3.4588360790000001</v>
-      </c>
-      <c r="E8" s="2">
-        <v>2.528302193</v>
-      </c>
-      <c r="F8" s="2">
-        <v>3</v>
-      </c>
-      <c r="G8" s="2">
-        <v>3</v>
-      </c>
-      <c r="H8" s="2">
-        <v>2</v>
-      </c>
-      <c r="I8" s="2">
-        <v>5</v>
-      </c>
-      <c r="J8" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
